--- a/output/google_maps_data_Klinik_Gunungkidul.xlsx
+++ b/output/google_maps_data_Klinik_Gunungkidul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Klinik+Gunungkidul/@-7.8053056,110.2139841,11z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -530,25 +524,24 @@
           <t>0823-2428-0354</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.8</v>
+        <v>-7.952306</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.952306</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.588308</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Utama+PDHI+Wonosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb3b5a63ffd33:0xd4a58d20dab193f5!8m2!3d-7.9523056!4d110.5883078!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11h5n1rt15?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Utama+PDHI+Wonosari/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb3b5a63ffd33:0xd4a58d20dab193f5!8m2!3d-7.9523056!4d110.5883078!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9vZmZpY2XgAQA!16s%2Fg%2F11h5n1rt15?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -567,25 +560,24 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>-7.966322</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.966322</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.599709</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Gilang+Saputro/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb37dda4209b7:0x33b54106c0d2d94f!8m2!3d-7.9663223!4d110.5997089!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX29mZmljZeABAA!16s%2Fg%2F11l21f2g7b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Gilang+Saputro/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb37dda4209b7:0x33b54106c0d2d94f!8m2!3d-7.9663223!4d110.5997089!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX29mZmljZeABAA!16s%2Fg%2F11l21f2g7b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -608,25 +600,24 @@
           <t>(0274) 7115142</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.6</v>
+        <v>-7.880186</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.880186</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.543063</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Kurnia+Husada/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a4de87a6a3a83:0x60853b236f76cb9c!8m2!3d-7.8801865!4d110.5430631!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11c2gr1541?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Kurnia+Husada/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a4de87a6a3a83:0x60853b236f76cb9c!8m2!3d-7.8801865!4d110.5430631!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11c2gr1541?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -649,25 +640,24 @@
           <t>(0274) 2903681</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>-7.869448</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.869448</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.62279</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Rawat+Inap+MITRA+HUSADA/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a4bfea08eeff3:0x26efd4d6417834ed!8m2!3d-7.8694483!4d110.6227903!15sChJLbGluaWsgR3VudW5na2lkdWySARlmYW1pbHlfcHJhY3RpY2VfcGh5c2ljaWFu4AEA!16s%2Fg%2F11clkmfqx8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Rawat+Inap+MITRA+HUSADA/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a4bfea08eeff3:0x26efd4d6417834ed!8m2!3d-7.8694483!4d110.6227903!15sChJLbGluaWsgR3VudW5na2lkdWySARlmYW1pbHlfcHJhY3RpY2VfcGh5c2ljaWFu4AEA!16s%2Fg%2F11clkmfqx8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -690,25 +680,24 @@
           <t>(0274) 392904</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.8</v>
+        <v>-7.96372</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.96372</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.614313</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KLINIK+PRATAMA+FIRA+HUSADA+(+Dr.WAKIDI.S.Kep+)/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb35f2cebf89f:0x97049d6c95749192!8m2!3d-7.9637201!4d110.614313!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX29mZmljZeABAA!16s%2Fg%2F11hd70srbt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KLINIK+PRATAMA+FIRA+HUSADA+(+Dr.WAKIDI.S.Kep+)/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb35f2cebf89f:0x97049d6c95749192!8m2!3d-7.9637201!4d110.614313!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX29mZmljZeABAA!16s%2Fg%2F11hd70srbt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -731,25 +720,24 @@
           <t>0812-1556-686</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.3</v>
+        <v>-8.020943000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.020943000000001</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.586759</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Rawat+Inap+Cipta+Husada/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb162545497d7:0x868d7ce7406413a2!8m2!3d-8.0209426!4d110.5867589!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11bvt227k5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Rawat+Inap+Cipta+Husada/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb162545497d7:0x868d7ce7406413a2!8m2!3d-8.0209426!4d110.5867589!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11bvt227k5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -772,25 +760,24 @@
           <t>0819-3172-4062</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>-7.945837</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.945837</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.618007</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Fortuna+Husada/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a4b5511736e35:0x49201f811acf9fdb!8m2!3d-7.9458369!4d110.6180065!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11c5h2ndqx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Fortuna+Husada/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a4b5511736e35:0x49201f811acf9fdb!8m2!3d-7.9458369!4d110.6180065!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11c5h2ndqx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>53 menit lalu</t>
         </is>
@@ -813,25 +800,24 @@
           <t>(0274) 394121</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F10" t="n">
-        <v>3.5</v>
+        <v>-7.95433</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.95433</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.604289</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Bakti+Husada/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb34fc1b97319:0x8bc6862438178728!8m2!3d-7.9543304!4d110.6042887!15sChJLbGluaWsgR3VudW5na2lkdWySAQ53YWxrX2luX2NsaW5pY-ABAA!16s%2Fg%2F1pzt9vfxq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Bakti+Husada/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb34fc1b97319:0x8bc6862438178728!8m2!3d-7.9543304!4d110.6042887!15sChJLbGluaWsgR3VudW5na2lkdWySAQ53YWxrX2luX2NsaW5pY-ABAA!16s%2Fg%2F1pzt9vfxq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -854,25 +840,24 @@
           <t>0877-3944-5188</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.3</v>
+        <v>-7.962949</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.962949</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.619877</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Mitra/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb4a6d61e128f:0xe66565b8c1773d46!8m2!3d-7.9629486!4d110.6198768!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11b6gcrv28?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Mitra/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb4a6d61e128f:0xe66565b8c1773d46!8m2!3d-7.9629486!4d110.6198768!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11b6gcrv28?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -891,25 +876,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>-7.970249</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.970249</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.606641</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Rawat+Jalan+Polres+Gunungkidul/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb34b5355ea8d:0xef87be6919ff1050!8m2!3d-7.9702492!4d110.6066406!15sChJLbGluaWsgR3VudW5na2lkdWySAQhob3NwaXRhbOABAA!16s%2Fg%2F11fs9ndxhv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Rawat+Jalan+Polres+Gunungkidul/@-7.8053056,110.2139841,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb34b5355ea8d:0xef87be6919ff1050!8m2!3d-7.9702492!4d110.6066406!15sChJLbGluaWsgR3VudW5na2lkdWySAQhob3NwaXRhbOABAA!16s%2Fg%2F11fs9ndxhv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -932,25 +916,24 @@
           <t>0817-7928-5808</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.7</v>
+        <v>-8.012698</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.012698</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.673477</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Al+Mubarok/@-8.0126984,110.3850863,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb5ced60d59c7:0x50b4a794af69c103!8m2!3d-8.0126984!4d110.6734774!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11c1r4dw2j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Al+Mubarok/@-8.0126984,110.3850863,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb5ced60d59c7:0x50b4a794af69c103!8m2!3d-8.0126984!4d110.6734774!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11c1r4dw2j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -973,25 +956,24 @@
           <t>0877-3890-1272</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F14" t="n">
-        <v>3.8</v>
+        <v>-7.963252</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.963252</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.61683</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+dr.+Anita+Sp.OG/@-8.0126984,110.3850863,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb4a7555d7639:0xbd265cb7f2332ce0!8m2!3d-7.9632519!4d110.6168295!15sChJLbGluaWsgR3VudW5na2lkdWySARJzcGVjaWFsaXplZF9jbGluaWPgAQA!16s%2Fg%2F11fy4s7gnb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+dr.+Anita+Sp.OG/@-8.0126984,110.3850863,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb4a7555d7639:0xbd265cb7f2332ce0!8m2!3d-7.9632519!4d110.6168295!15sChJLbGluaWsgR3VudW5na2lkdWySARJzcGVjaWFsaXplZF9jbGluaWPgAQA!16s%2Fg%2F11fy4s7gnb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1018,25 +1000,24 @@
           <t>0878-0543-3144</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.4</v>
+        <v>-7.953654</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.953654</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.682667</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Mitra+2+Karangmojo/@-8.0126984,110.3850863,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb530c63e9213:0x59bb46eb0d9a90a3!8m2!3d-7.953654!4d110.6826667!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX29mZmljZeABAA!16s%2Fg%2F11hbh6x_zw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Mitra+2+Karangmojo/@-8.0126984,110.3850863,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb530c63e9213:0x59bb46eb0d9a90a3!8m2!3d-7.953654!4d110.6826667!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX29mZmljZeABAA!16s%2Fg%2F11hbh6x_zw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1059,25 +1040,24 @@
           <t>(0274) 392058</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.8</v>
+        <v>-7.963732</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.963732</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.606764</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Kartika+0730+Gk/@-8.0126984,110.3850863,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb378ad027f5b:0x62b837f32bf15171!8m2!3d-7.9637324!4d110.6067641!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX29mZmljZeABAA!16s%2Fg%2F11jbcdlj09?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Kartika+0730+Gk/@-8.0126984,110.3850863,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb378ad027f5b:0x62b837f32bf15171!8m2!3d-7.9637324!4d110.6067641!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX29mZmljZeABAA!16s%2Fg%2F11jbcdlj09?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1100,25 +1080,24 @@
           <t>0812-9090-1451</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>-7.978099</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.978099</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.713214</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Jayanti+Medika/@-8.0126984,110.3850863,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bcbbe1dcb076f:0x20e07aa5580410c8!8m2!3d-7.9780989!4d110.7132138!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11vbkjckll?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Jayanti+Medika/@-8.0126984,110.3850863,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bcbbe1dcb076f:0x20e07aa5580410c8!8m2!3d-7.9780989!4d110.7132138!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11vbkjckll?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1141,25 +1120,24 @@
           <t>(0274) 394564</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>-7.980601</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.980601</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.597312</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Adi+Medika/@-8.0126984,110.3850863,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb3726d87cbdf:0x89c97803fe2d53b0!8m2!3d-7.9806014!4d110.5973121!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11dxlbz7vg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Adi+Medika/@-8.0126984,110.3850863,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb3726d87cbdf:0x89c97803fe2d53b0!8m2!3d-7.9806014!4d110.5973121!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11dxlbz7vg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1182,25 +1160,24 @@
           <t>0821-3739-5788</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.6</v>
+        <v>-7.954586</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.954586</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.587941</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Utama+Leonisa/@-8.0126984,110.3850863,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb336a7a68133:0xdb0a4002c9b04d69!8m2!3d-7.9545865!4d110.5879409!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX2NlbnRlcuABAA!16s%2Fg%2F11c1s61gmc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Utama+Leonisa/@-8.0126984,110.3850863,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb336a7a68133:0xdb0a4002c9b04d69!8m2!3d-7.9545865!4d110.5879409!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX2NlbnRlcuABAA!16s%2Fg%2F11c1s61gmc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1223,25 +1200,24 @@
           <t>(0274) 7496319</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>-8.000076999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>-8.000076999999999</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.66111</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Bintang+Medica/@-8.0126984,110.3850863,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb5b304d73eed:0x4c9b8377a5a5fea1!8m2!3d-8.0000772!4d110.66111!15sChJLbGluaWsgR3VudW5na2lkdWySAQZkb2N0b3LgAQA!16s%2Fg%2F11cmc2k4f9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Bintang+Medica/@-8.0126984,110.3850863,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb5b304d73eed:0x4c9b8377a5a5fea1!8m2!3d-8.0000772!4d110.66111!15sChJLbGluaWsgR3VudW5na2lkdWySAQZkb2N0b3LgAQA!16s%2Fg%2F11cmc2k4f9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1264,25 +1240,24 @@
           <t>0818-0400-2494</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.2</v>
+        <v>-8.014093000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>-8.014093000000001</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.621647</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+MU'AAWANAH/@-8.0126984,110.3850863,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb40be87fa37f:0x977a86d84be410f9!8m2!3d-8.0140935!4d110.6216467!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX29mZmljZeABAA!16s%2Fg%2F11f29_n69g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+MU'AAWANAH/@-8.0126984,110.3850863,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb40be87fa37f:0x977a86d84be410f9!8m2!3d-8.0140935!4d110.6216467!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX29mZmljZeABAA!16s%2Fg%2F11f29_n69g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1305,25 +1280,24 @@
           <t>0821-3494-2117</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>-8.167077000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>-8.167077000000001</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.770074</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+As+Salam/@-8.0126984,110.3850863,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bc7002afbc02f:0x38f89ac16833ac34!8m2!3d-8.1670775!4d110.7700741!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9jbGluaWOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTk1iRXB1YkdSM0VBReABAPoBBAh9EDc!16s%2Fg%2F11y4yfz5k6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+As+Salam/@-8.0126984,110.3850863,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bc7002afbc02f:0x38f89ac16833ac34!8m2!3d-8.1670775!4d110.7700741!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9jbGluaWOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTk1iRXB1YkdSM0VBReABAPoBBAh9EDc!16s%2Fg%2F11y4yfz5k6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -1342,25 +1316,24 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>-7.970039</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.970039</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.601271</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/dr+paurin/@-8.0126984,110.3850863,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb3f8982a1e9b:0x274b524107845e2c!8m2!3d-7.9700393!4d110.6012711!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9vZmZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmZPVjl4VWxKQkVBReABAPoBBAgAEA0!16s%2Fg%2F11jz9k8sj1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/dr+paurin/@-8.0126984,110.3850863,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb3f8982a1e9b:0x274b524107845e2c!8m2!3d-7.9700393!4d110.6012711!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9vZmZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmZPVjl4VWxKQkVBReABAPoBBAgAEA0!16s%2Fg%2F11jz9k8sj1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1379,25 +1352,24 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>-7.973069</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.973069</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.608006</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Dr.+Juno/@-8.0126984,110.3850863,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb3ebba19efb9:0xa439ecc4203c037f!8m2!3d-7.9730688!4d110.6080064!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEGZG9jdG9ymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU14Ym1NeVZrMTNFQUXgAQD6AQQIABAc!16s%2Fg%2F11j12353gm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Dr.+Juno/@-8.0126984,110.3850863,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb3ebba19efb9:0xa439ecc4203c037f!8m2!3d-7.9730688!4d110.6080064!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEGZG9jdG9ymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU14Ym1NeVZrMTNFQUXgAQD6AQQIABAc!16s%2Fg%2F11j12353gm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1416,25 +1388,24 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.5</v>
+        <v>-8.052968999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>-8.052968999999999</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.537299</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+dokter+bersama/@-8.0529687,110.2489078,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb168481e90a1:0xac8bf6903dc18e37!8m2!3d-8.0529687!4d110.5372989!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEGZG9jdG9ymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU50Y25KdU1YQjNSUkFC4AEA-gEECAAQPw!16s%2Fg%2F11h71h8rz9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+dokter+bersama/@-8.0529687,110.2489078,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb168481e90a1:0xac8bf6903dc18e37!8m2!3d-8.0529687!4d110.5372989!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEGZG9jdG9ymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU50Y25KdU1YQjNSUkFC4AEA-gEECAAQPw!16s%2Fg%2F11h71h8rz9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1461,25 +1432,24 @@
           <t>0877-1651-6599</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.4</v>
+        <v>-7.953109</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.953109</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.671244</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RSI+Gunung+Kidul/@-8.0529687,110.2489078,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb5f0d9fa368b:0xfe27c288f4036aa7!8m2!3d-7.9531092!4d110.6712437!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEIaG9zcGl0YWyaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnlNbHB0YnpaQlJSQULgAQD6AQQIABAv!16s%2Fg%2F11k4l29qtp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RSI+Gunung+Kidul/@-8.0529687,110.2489078,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb5f0d9fa368b:0xfe27c288f4036aa7!8m2!3d-7.9531092!4d110.6712437!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEIaG9zcGl0YWyaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnlNbHB0YnpaQlJSQULgAQD6AQQIABAv!16s%2Fg%2F11k4l29qtp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1498,25 +1468,24 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>-7.938975</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.938975</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.639162</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Mardi+Husada/@-8.0529687,110.2489078,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a4b484a68e555:0x3c7bb910980ce2d8!8m2!3d-7.9389754!4d110.6391616!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX29mZmljZeABAA!16s%2Fg%2F11d_8lvc2l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Mardi+Husada/@-8.0529687,110.2489078,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a4b484a68e555:0x3c7bb910980ce2d8!8m2!3d-7.9389754!4d110.6391616!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX29mZmljZeABAA!16s%2Fg%2F11d_8lvc2l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1539,25 +1508,24 @@
           <t>0819-0421-0389</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.6</v>
+        <v>-7.999959</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.999959</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.693532</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KLINIK+PERMATA+ADINDA/@-7.9999586,110.4051413,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb596ba604225:0x56ee14bf9d7bb3ca!8m2!3d-7.9999586!4d110.6935324!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEGZG9jdG9ymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5vYUc5SE9YcEJSUkFC4AEA-gEECAAQDg!16s%2Fg%2F11hcfqb4ml?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KLINIK+PERMATA+ADINDA/@-7.9999586,110.4051413,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb596ba604225:0x56ee14bf9d7bb3ca!8m2!3d-7.9999586!4d110.6935324!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEGZG9jdG9ymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5vYUc5SE9YcEJSUkFC4AEA-gEECAAQDg!16s%2Fg%2F11hcfqb4ml?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1580,25 +1548,24 @@
           <t>0889-9999-9300</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.8</v>
+        <v>-7.979772</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.979772</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.608638</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/dr.+CHRISTIAN+PAULSEN+Sp.OG(K).MARS/@-7.9999586,110.4051413,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb3554537b881:0xf8a80f582647d0ef!8m2!3d-7.979772!4d110.6086383!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgETZmVydGlsaXR5X3BoeXNpY2lhbpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNMk5pMUxTVk4zRUFF4AEA-gEECFAQSQ!16s%2Fg%2F11f61whhvx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/dr.+CHRISTIAN+PAULSEN+Sp.OG(K).MARS/@-7.9999586,110.4051413,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb3554537b881:0xf8a80f582647d0ef!8m2!3d-7.979772!4d110.6086383!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgETZmVydGlsaXR5X3BoeXNpY2lhbpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNMk5pMUxTVk4zRUFF4AEA-gEECFAQSQ!16s%2Fg%2F11f61whhvx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1621,25 +1588,24 @@
           <t>0813-2828-6363</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>5</v>
+      </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>-7.968851</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.968851</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.718404</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KHITAN+CENTER+MODERN+GUNUNGKIDUL/@-7.9999586,110.4051413,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bca9bfed662fb:0xeb0c842f05397899!8m2!3d-7.9688514!4d110.7184037!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmxjRnBYT1hWQlJSQULgAQD6AQQIABA5!16s%2Fg%2F11ggpk05v8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KHITAN+CENTER+MODERN+GUNUNGKIDUL/@-7.9999586,110.4051413,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bca9bfed662fb:0xeb0c842f05397899!8m2!3d-7.9688514!4d110.7184037!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmxjRnBYT1hWQlJSQULgAQD6AQQIABA5!16s%2Fg%2F11ggpk05v8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1658,25 +1624,24 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.3</v>
+        <v>-8.02313</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.02313</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.586729</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Ar+Raudhah/@-7.9999586,110.4051413,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb398aac6b387:0x1c14b575118daa7b!8m2!3d-8.0231305!4d110.586729!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjBOVkJZVldkblJSQULgAQD6AQQIABAm!16s%2Fg%2F11h3lfdmq7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Ar+Raudhah/@-7.9999586,110.4051413,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb398aac6b387:0x1c14b575118daa7b!8m2!3d-8.0231305!4d110.586729!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjBOVkJZVldkblJSQULgAQD6AQQIABAm!16s%2Fg%2F11h3lfdmq7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1699,25 +1664,24 @@
           <t>0812-1594-4545</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.2</v>
+        <v>-7.938481</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.938481</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.575244</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Praktek+Dokter+Spesialis+Rehabilitas+Medik+Fisioterapi/@-7.9999586,110.4051413,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a4cda20644a21:0x2750c1a540fe6c5f!8m2!3d-7.938481!4d110.5752437!15sChJLbGluaWsgR3VudW5na2lkdWySARRwaHlzaW90aGVyYXB5X2NlbnRlcuABAA!16s%2Fg%2F11dxlcyzlr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Praktek+Dokter+Spesialis+Rehabilitas+Medik+Fisioterapi/@-7.9999586,110.4051413,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a4cda20644a21:0x2750c1a540fe6c5f!8m2!3d-7.938481!4d110.5752437!15sChJLbGluaWsgR3VudW5na2lkdWySARRwaHlzaW90aGVyYXB5X2NlbnRlcuABAA!16s%2Fg%2F11dxlcyzlr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1744,25 +1708,24 @@
           <t>0813-2778-2299</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.8</v>
+        <v>-7.971432</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.971432</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.599866</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/HAPPY+KIDS+EDUCARE/@-7.9999586,110.4051413,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb329861bd41d:0x221351b3a2486887!8m2!3d-7.9714322!4d110.5998658!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEQcGVkaWF0cmljX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNMU9HSXpTRVZuRUFF4AEA-gEECAAQQw!16s%2Fg%2F11kpdyg8dc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/HAPPY+KIDS+EDUCARE/@-7.9999586,110.4051413,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb329861bd41d:0x221351b3a2486887!8m2!3d-7.9714322!4d110.5998658!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEQcGVkaWF0cmljX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNMU9HSXpTRVZuRUFF4AEA-gEECAAQQw!16s%2Fg%2F11kpdyg8dc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1789,25 +1752,24 @@
           <t>(0274) 2910382</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>5</v>
+      </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>-7.971545</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.971545</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.60633</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Larissa+Aesthetic+Center+Wonosari/@-7.9999586,110.4051413,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb367ca0c74cd:0xbad15e283e085681!8m2!3d-7.9715453!4d110.6063295!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F11c1s316n8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Larissa+Aesthetic+Center+Wonosari/@-7.9999586,110.4051413,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb367ca0c74cd:0xbad15e283e085681!8m2!3d-7.9715453!4d110.6063295!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEQc2tpbl9jYXJlX2NsaW5pY-ABAA!16s%2Fg%2F11c1s316n8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>23 menit lalu</t>
         </is>
@@ -1834,25 +1796,24 @@
           <t>0812-2944-9995</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>5</v>
+      </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>-7.969072</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.969072</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.603851</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/DRW+Skincare+Gunungkidul+Rumah+Cantik+Irin+2/@-7.9999586,110.4051413,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb342ff9a4ca7:0xc6bee2a5ada03887!8m2!3d-7.9690716!4d110.6038506!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEQc2tpbl9jYXJlX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOc09YTnRMVTUzRUFF4AEA-gEECAAQPg!16s%2Fg%2F1pzsvh9bh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/DRW+Skincare+Gunungkidul+Rumah+Cantik+Irin+2/@-7.9999586,110.4051413,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb342ff9a4ca7:0xc6bee2a5ada03887!8m2!3d-7.9690716!4d110.6038506!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEQc2tpbl9jYXJlX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOc09YTnRMVTUzRUFF4AEA-gEECAAQPg!16s%2Fg%2F1pzsvh9bh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1875,25 +1836,24 @@
           <t>0858-7555-0871</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>5</v>
+      </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>-7.946044</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.946044</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.605825</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dokter+Saraf+(+dr.+Adisti,+Sp.N+)/@-7.9999586,110.4051413,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb31a12198f83:0xa4d263059702aeed!8m2!3d-7.9460441!4d110.605825!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEGZG9jdG9ymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJmTms0MldESjNSUkFC4AEA-gEECAAQPA!16s%2Fg%2F11hknvm0sf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dokter+Saraf+(+dr.+Adisti,+Sp.N+)/@-7.9999586,110.4051413,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb31a12198f83:0xa4d263059702aeed!8m2!3d-7.9460441!4d110.605825!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEGZG9jdG9ymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJmTms0MldESjNSUkFC4AEA-gEECAAQPA!16s%2Fg%2F11hknvm0sf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1912,25 +1872,24 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.3</v>
+        <v>-7.969744</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.969744</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.716746</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Dr.+Jazuli/@-7.9999586,110.4051413,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bca9c158474e5:0x926c1a8da04bb38e!8m2!3d-7.9697443!4d110.7167461!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjRNbU5NWlhoM1JSQULgAQD6AQQIABA0!16s%2Fg%2F11ggpk0lms?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Dr.+Jazuli/@-7.9999586,110.4051413,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bca9c158474e5:0x926c1a8da04bb38e!8m2!3d-7.9697443!4d110.7167461!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjRNbU5NWlhoM1JSQULgAQD6AQQIABA0!16s%2Fg%2F11ggpk0lms?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1949,25 +1908,24 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.5</v>
+        <v>-7.835641</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.835641</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.701119</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Dr.+Novi/@-7.9999586,110.4051413,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a491f9ee898df:0xe0cd50e913fc20fd!8m2!3d-7.8356413!4d110.7011185!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9jbGluaWOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnliVWxVT0VkUkVBReABAPoBBAgAECI!16s%2Fg%2F11g2v_hhfj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Dr.+Novi/@-7.9999586,110.4051413,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a491f9ee898df:0xe0cd50e913fc20fd!8m2!3d-7.8356413!4d110.7011185!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9jbGluaWOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnliVWxVT0VkUkVBReABAPoBBAgAECI!16s%2Fg%2F11g2v_hhfj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1986,25 +1944,24 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.5</v>
+        <v>-7.99454</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.99454</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.59288</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/dr.+Widodo+Joko+Santoso+Sp.+OG/@-7.9999586,110.4051413,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb34196a46da1:0x1d40d4a53dc8582d!8m2!3d-7.9945397!4d110.5928803!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEcb2JzdGV0cmljc19neW5lY29sb2d5X2NsaW5pY5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSMU5VeDVjVGhCUlJBQuABAPoBBAgAEEc!16s%2Fg%2F11pbdlv0p3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/dr.+Widodo+Joko+Santoso+Sp.+OG/@-7.9999586,110.4051413,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb34196a46da1:0x1d40d4a53dc8582d!8m2!3d-7.9945397!4d110.5928803!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEcb2JzdGV0cmljc19neW5lY29sb2d5X2NsaW5pY5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSMU5VeDVjVGhCUlJBQuABAPoBBAgAEEc!16s%2Fg%2F11pbdlv0p3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2023,25 +1980,24 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F40" t="n">
-        <v>3.6</v>
+        <v>-7.922267</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.922267</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.561495</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RS+Nur+Rohmah/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a4d0535afa94b:0x6ed25da7ca24bccc!8m2!3d-7.9222668!4d110.5614948!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEIaG9zcGl0YWyaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmxNbU5IYTFsM0VBReABAPoBBAgAED4!16s%2Fg%2F1pzvrn69b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RS+Nur+Rohmah/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a4d0535afa94b:0x6ed25da7ca24bccc!8m2!3d-7.9222668!4d110.5614948!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEIaG9zcGl0YWyaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmxNbU5IYTFsM0VBReABAPoBBAgAED4!16s%2Fg%2F1pzvrn69b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -2065,22 +2021,21 @@
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>-7.969176</v>
+      </c>
       <c r="G41" t="n">
-        <v>-7.969176</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.597497</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/KLINIK+KURET+GUNUNG+KIDUL+DR.+BELA+DAN+SEDIA+OBAT/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb33f7161a085:0x348072d711cbb925!8m2!3d-7.9691758!4d110.5974971!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11y5gdf1q1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2099,25 +2054,24 @@
           <t>(0274) 4353476</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.5</v>
+        <v>-7.830689</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.830689</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.44245</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Kartika+Husada/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a50d91fb57a23:0xbd1e78bc51eec946!8m2!3d-7.8306888!4d110.4424495!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUm1kalV6UkhWM1JSQULgAQD6AQQIABBE!16s%2Fg%2F1twxbtvb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Kartika+Husada/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a50d91fb57a23:0xbd1e78bc51eec946!8m2!3d-7.8306888!4d110.4424495!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUm1kalV6UkhWM1JSQULgAQD6AQQIABBE!16s%2Fg%2F1twxbtvb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2136,25 +2090,24 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>5</v>
+      </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>-7.955155</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.955155</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.650761</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Budi+Lumakso/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb5d55159f889:0x50d36e31ec6dbd8d!8m2!3d-7.955155!4d110.6507606!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11hztl49y7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Budi+Lumakso/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb5d55159f889:0x50d36e31ec6dbd8d!8m2!3d-7.955155!4d110.6507606!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11hztl49y7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -2181,25 +2134,24 @@
           <t>(0274) 391288</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.3</v>
+        <v>-7.96184</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.96184</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.602918</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rumah+Sakit+Umum+Daerah+(+RSUD+)+Wonosari/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb344e46a0ced:0x504501a993de864e!8m2!3d-7.96184!4d110.6029178!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgETZ292ZXJubWVudF9ob3NwaXRhbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReE9GbHlZbGQzRUFF4AEA-gEECAAQRQ!16s%2Fg%2F1tht41xd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rumah+Sakit+Umum+Daerah+(+RSUD+)+Wonosari/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb344e46a0ced:0x504501a993de864e!8m2!3d-7.96184!4d110.6029178!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgETZ292ZXJubWVudF9ob3NwaXRhbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReE9GbHlZbGQzRUFF4AEA-gEECAAQRQ!16s%2Fg%2F1tht41xd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -2218,25 +2170,24 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4</v>
+      </c>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>-7.940109</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.940109</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.628997</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Jolanda/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a4b4e299ffe37:0xeb496ea2a0a9613!8m2!3d-7.9401093!4d110.6289969!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX29mZmljZeABAA!16s%2Fg%2F11d_8lx98r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Jolanda/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a4b4e299ffe37:0xeb496ea2a0a9613!8m2!3d-7.9401093!4d110.6289969!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX29mZmljZeABAA!16s%2Fg%2F11d_8lx98r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -2259,25 +2210,24 @@
           <t>0857-4356-2251</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.9</v>
+        <v>-8.020305</v>
       </c>
       <c r="G46" t="n">
-        <v>-8.020305</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.644932</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rumah+Sunat+Modern+dr.+Kunto+Budi+Santoso/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb423432d22b9:0x9d9d9c48545ee83d!8m2!3d-8.0203055!4d110.6449316!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEGZG9jdG9ymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJMTm05dFRuQjNSUkFC4AEA-gEECCMQRQ!16s%2Fg%2F11f3n97ngj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rumah+Sunat+Modern+dr.+Kunto+Budi+Santoso/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb423432d22b9:0x9d9d9c48545ee83d!8m2!3d-8.0203055!4d110.6449316!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEGZG9jdG9ymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJMTm05dFRuQjNSUkFC4AEA-gEECCMQRQ!16s%2Fg%2F11f3n97ngj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -2304,25 +2254,24 @@
           <t>(0274) 2901454</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.1</v>
+        <v>-7.956344</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.956344</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.65808</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rumah+Sakit+Panti+Rahayu/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb4d0acf6efc5:0x10e72d95d151e183!8m2!3d-7.9563436!4d110.65808!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEQZ2VuZXJhbF9ob3NwaXRhbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReWNVdHBNbGhuRUFF4AEA-gEECAAQRQ!16s%2Fg%2F11b7dzxd_v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rumah+Sakit+Panti+Rahayu/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb4d0acf6efc5:0x10e72d95d151e183!8m2!3d-7.9563436!4d110.65808!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEQZ2VuZXJhbF9ob3NwaXRhbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReWNVdHBNbGhuRUFF4AEA-gEECAAQRQ!16s%2Fg%2F11b7dzxd_v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>2 jam lalu</t>
         </is>
@@ -2345,25 +2294,24 @@
           <t>0812-2770-757</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4</v>
+      </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>-7.986868</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.986868</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.627167</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Praktek+Dokter+Kuswanta/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb5d0c9538e95:0xc85f32fa2463bc00!8m2!3d-7.9868681!4d110.627167!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjZlbEJRVEhCblJSQULgAQD6AQQIABAv!16s%2Fg%2F11ns54v2l4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Praktek+Dokter+Kuswanta/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb5d0c9538e95:0xc85f32fa2463bc00!8m2!3d-7.9868681!4d110.627167!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjZlbEJRVEhCblJSQULgAQD6AQQIABAv!16s%2Fg%2F11ns54v2l4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2386,25 +2334,24 @@
           <t>0817-5492-665</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>5</v>
+      </c>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>-7.981225</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.981225</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.597016</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mandiri+Physio+GK+(Fisioterapi)/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb32c9a9218e3:0x5bbb67e0115e05d5!8m2!3d-7.9812247!4d110.597016!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9vZmZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFhbVJwTFZCUkVBReABAPoBBAgAEDQ!16s%2Fg%2F11t1bzd6_z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mandiri+Physio+GK+(Fisioterapi)/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb32c9a9218e3:0x5bbb67e0115e05d5!8m2!3d-7.9812247!4d110.597016!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9vZmZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFhbVJwTFZCUkVBReABAPoBBAgAEDQ!16s%2Fg%2F11t1bzd6_z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2427,25 +2374,24 @@
           <t>0838-2227-1067</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>5</v>
+      </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>-8.036042</v>
       </c>
       <c r="G50" t="n">
-        <v>-8.036042</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.46995</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Drw+Skincare+Panggang+Gunungkidul/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bad6dc408e459:0x1c2ee253b3c93d13!8m2!3d-8.0360421!4d110.4699496!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEQc2tpbl9jYXJlX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOd2RYSkVkR0ozRUFF4AEA-gEECAAQPw!16s%2Fg%2F11lgnl62r4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Drw+Skincare+Panggang+Gunungkidul/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bad6dc408e459:0x1c2ee253b3c93d13!8m2!3d-8.0360421!4d110.4699496!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEQc2tpbl9jYXJlX2NsaW5pY5oBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOd2RYSkVkR0ozRUFF4AEA-gEECAAQPw!16s%2Fg%2F11lgnl62r4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2464,25 +2410,24 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>5</v>
+      </c>
       <c r="F51" t="n">
-        <v>5</v>
+        <v>-7.96752</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.96752</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.598966</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Terapi+tongkat+Siddiqiyah/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb341879ae7d3:0x245da69c55abe44c!8m2!3d-7.9675197!4d110.5989663!15sChJLbGluaWsgR3VudW5na2lkdWySARRwaHlzaW90aGVyYXB5X2NlbnRlcuABAA!16s%2Fg%2F11dxbmc_rw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Terapi+tongkat+Siddiqiyah/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb341879ae7d3:0x245da69c55abe44c!8m2!3d-7.9675197!4d110.5989663!15sChJLbGluaWsgR3VudW5na2lkdWySARRwaHlzaW90aGVyYXB5X2NlbnRlcuABAA!16s%2Fg%2F11dxbmc_rw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -2505,25 +2450,24 @@
           <t>0813-9033-6448</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.8</v>
+        <v>-8.055982999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>-8.055982999999999</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.615795</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gati+Tulang+Gunungkidul/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb134a40b472f:0x45eefedd230e0b02!8m2!3d-8.055983!4d110.6157948!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEGZG9jdG9ymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI1YTNRdFlVaG5FQUXgAQD6AQQIABA2!16s%2Fg%2F11d_7td9rk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gati+Tulang+Gunungkidul/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb134a40b472f:0x45eefedd230e0b02!8m2!3d-8.055983!4d110.6157948!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEGZG9jdG9ymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI1YTNRdFlVaG5FQUXgAQD6AQQIABA2!16s%2Fg%2F11d_7td9rk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2546,25 +2490,24 @@
           <t>0877-3811-7373</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>5</v>
+      </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>-7.940126</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.940126</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.577437</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rasika+Rawat+Luka/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb36baaaaaaab:0x536090c57c183337!8m2!3d-7.9401265!4d110.5774367!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9jbGluaWOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUldjbVpmVjJWM0VBReABAPoBBAgAEEA!16s%2Fg%2F11jkycwtfj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rasika+Rawat+Luka/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb36baaaaaaab:0x536090c57c183337!8m2!3d-7.9401265!4d110.5774367!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9jbGluaWOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUldjbVpmVjJWM0VBReABAPoBBAgAEEA!16s%2Fg%2F11jkycwtfj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2588,22 +2531,21 @@
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>-7.966661</v>
+      </c>
       <c r="G54" t="n">
-        <v>-7.966661</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.602101</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Pengobatan+Kurnia+Husada/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb34300f2c1c5:0x3ee219e8789e8cea!8m2!3d-7.9666608!4d110.6021009!15sChJLbGluaWsgR3VudW5na2lkdWySAQ53YWxrX2luX2NsaW5pY-ABAA!16s%2Fg%2F11bc7trcfh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2622,25 +2564,24 @@
           <t>(0274) 2901622</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F55" t="n">
-        <v>4.2</v>
+        <v>-7.963208</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.963208</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.616854</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RSIA+Allaudya/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb4a74eeb21f7:0xcdeee457976b1307!8m2!3d-7.9632076!4d110.6168536!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgESbWF0ZXJuaXR5X2hvc3BpdGFsmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5FYWpscE5UVlJSUkFC4AEA-gEECAAQLQ!16s%2Fg%2F11g8djvs2t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RSIA+Allaudya/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb4a74eeb21f7:0xcdeee457976b1307!8m2!3d-7.9632076!4d110.6168536!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgESbWF0ZXJuaXR5X2hvc3BpdGFsmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5FYWpscE5UVlJSUkFC4AEA-gEECAAQLQ!16s%2Fg%2F11g8djvs2t?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2667,25 +2608,24 @@
           <t>(0274) 392199</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>2.5</v>
+      </c>
       <c r="F56" t="n">
-        <v>2.5</v>
+        <v>-7.964125</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.964125</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.608017</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puskesmas+Wonosari+II+Gunungkidul/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb3da8eab3b95:0x41bc3af7f9f98825!8m2!3d-7.9641246!4d110.6080169!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEXY29tbXVuaXR5X2hlYWx0aF9jZW50ZXKaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlVOV1o1T0ZGUkVBReABAPoBBAgAECU!16s%2Fg%2F11fkcz2jlh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puskesmas+Wonosari+II+Gunungkidul/@-7.9222668,110.2731037,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb3da8eab3b95:0x41bc3af7f9f98825!8m2!3d-7.9641246!4d110.6080169!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEXY29tbXVuaXR5X2hlYWx0aF9jZW50ZXKaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlVOV1o1T0ZGUkVBReABAPoBBAgAECU!16s%2Fg%2F11fkcz2jlh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2708,25 +2648,24 @@
           <t>0851-0035-5008</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F57" t="n">
-        <v>4.9</v>
+        <v>-7.836589</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.836589</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.351698</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Basuki+Amalia/@-7.8365889,110.0633064,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a57cae0760651:0xd036d91c4adf4823!8m2!3d-7.8365889!4d110.3516975!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9jbGluaWOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTXRjVXQyVGtObkVBReABAPoBBAgAEEQ!16s%2Fg%2F11cn8_lt1y?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Basuki+Amalia/@-7.8365889,110.0633064,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a57cae0760651:0xd036d91c4adf4823!8m2!3d-7.8365889!4d110.3516975!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9jbGluaWOaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTXRjVXQyVGtObkVBReABAPoBBAgAEEQ!16s%2Fg%2F11cn8_lt1y?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2745,25 +2684,24 @@
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>5</v>
+      </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>-7.964946</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.964946</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.593398</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Membantu+mensolusi+keluhan+akibat+sakit/@-7.9649461,110.3050072,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb3e451064603:0x5f2dae6374193dc0!8m2!3d-7.9649461!4d110.5933983!15sChJLbGluaWsgR3VudW5na2lkdWySARRwaHlzaW90aGVyYXB5X2NlbnRlcuABAA!16s%2Fg%2F11vhj0twyz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Membantu+mensolusi+keluhan+akibat+sakit/@-7.9649461,110.3050072,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb3e451064603:0x5f2dae6374193dc0!8m2!3d-7.9649461!4d110.5933983!15sChJLbGluaWsgR3VudW5na2lkdWySARRwaHlzaW90aGVyYXB5X2NlbnRlcuABAA!16s%2Fg%2F11vhj0twyz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2787,22 +2725,21 @@
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>-7.962446</v>
+      </c>
       <c r="G59" t="n">
-        <v>-7.962446</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.588713</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Aurera+Reflexiology/@-7.9649461,110.3050072,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb30ae486d123:0xdf9d42a69678ee62!8m2!3d-7.962446!4d110.5887128!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX29mZmljZeABAA!16s%2Fg%2F11fmzc4378?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2817,25 +2754,24 @@
           <t>(0274) 370182</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>-7.817842</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.817842</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.397644</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Ramadhan/@-7.817842,110.1092524,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x87fa980341b3e81:0xdde82c3e7d5ae3fa!8m2!3d-7.817842!4d110.3976435!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX29mZmljZeABAA!16s%2Fg%2F11v3r9hjjv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Ramadhan/@-7.817842,110.1092524,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x87fa980341b3e81:0xdde82c3e7d5ae3fa!8m2!3d-7.817842!4d110.3976435!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX29mZmljZeABAA!16s%2Fg%2F11v3r9hjjv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2858,25 +2794,24 @@
           <t>(0274) 4396586</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.1</v>
+        <v>-7.839253</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.839253</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.391463</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Mitra+Sehat/@-7.817842,110.1092524,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a56e359bae5c7:0xb6751c0e7c370625!8m2!3d-7.8392534!4d110.3914633!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUk9PWFpFVTNOM1JSQULgAQD6AQQIABAv!16s%2Fg%2F1pzycly_g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Mitra+Sehat/@-7.817842,110.1092524,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a56e359bae5c7:0xb6751c0e7c370625!8m2!3d-7.8392534!4d110.3914633!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUk9PWFpFVTNOM1JSQULgAQD6AQQIABAv!16s%2Fg%2F1pzycly_g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2899,25 +2834,24 @@
           <t>0888-2828-903</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F62" t="n">
-        <v>4.6</v>
+        <v>-7.96275</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.96275</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.59789</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/London+Beauty+Centre+(LBC)+WONOSARI/@-7.9627504,110.3094989,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb346936294ed:0xdec95d01c6c3105f!8m2!3d-7.9627504!4d110.59789!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEQc2tpbl9jYXJlX2NsaW5pY5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOcU1WQmhhamhCUlJBQuABAPoBBAgAECk!16s%2Fg%2F11c53b4dhz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/London+Beauty+Centre+(LBC)+WONOSARI/@-7.9627504,110.3094989,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb346936294ed:0xdec95d01c6c3105f!8m2!3d-7.9627504!4d110.59789!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEQc2tpbl9jYXJlX2NsaW5pY5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOcU1WQmhhamhCUlJBQuABAPoBBAgAECk!16s%2Fg%2F11c53b4dhz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2940,25 +2874,24 @@
           <t>0813-9257-8062</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>4</v>
+      </c>
       <c r="F63" t="n">
-        <v>4</v>
+        <v>-8.036873</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.036873</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.460504</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puskesmas+Panggang+2/@-8.0368734,110.172113,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bac27c7650001:0xb2a89f11720312c1!8m2!3d-8.0368734!4d110.4605041!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEVcHVibGljX21lZGljYWxfY2VudGVymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVI0YTI5aGNUQjNSUkFC4AEA-gEECAAQLA!16s%2Fg%2F11g6jrhm5n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puskesmas+Panggang+2/@-8.0368734,110.172113,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bac27c7650001:0xb2a89f11720312c1!8m2!3d-8.0368734!4d110.4605041!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEVcHVibGljX21lZGljYWxfY2VudGVymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVI0YTI5aGNUQjNSUkFC4AEA-gEECAAQLA!16s%2Fg%2F11g6jrhm5n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2985,25 +2918,24 @@
           <t>(0274) 393444</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4</v>
+      </c>
       <c r="F64" t="n">
-        <v>4</v>
+        <v>-7.98919</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.98919</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.632005</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RSU+Pelita+Husada/@-7.9891896,110.3436136,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb4627ce16439:0xf0f8b6fddc162347!8m2!3d-7.9891896!4d110.6320047!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEQZ2VuZXJhbF9ob3NwaXRhbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSQ0xXODNaR1JCRUFF4AEA-gEECAAQKQ!16s%2Fg%2F11b62zd117?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RSU+Pelita+Husada/@-7.9891896,110.3436136,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb4627ce16439:0xf0f8b6fddc162347!8m2!3d-7.9891896!4d110.6320047!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEQZ2VuZXJhbF9ob3NwaXRhbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSQ0xXODNaR1JCRUFF4AEA-gEECAAQKQ!16s%2Fg%2F11b62zd117?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -3030,25 +2962,24 @@
           <t>0878-3481-5535</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F65" t="n">
-        <v>4.3</v>
+        <v>-7.965454</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.965454</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.618017</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wonosari+Dental+Care/@-7.9891896,110.3436136,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb3464f1cc485:0x6f991989ee889382!8m2!3d-7.9654544!4d110.6180173!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEHZGVudGlzdJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VObWFDMVVWSGRCUlJBQuABAPoBBAgAEDk!16s%2Fg%2F11c48sd4cd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wonosari+Dental+Care/@-7.9891896,110.3436136,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb3464f1cc485:0x6f991989ee889382!8m2!3d-7.9654544!4d110.6180173!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEHZGVudGlzdJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VObWFDMVVWSGRCUlJBQuABAPoBBAgAEDk!16s%2Fg%2F11c48sd4cd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3071,25 +3002,24 @@
           <t>0819-0415-4292</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F66" t="n">
-        <v>3.8</v>
+        <v>-7.850012</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.850012</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.485443</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bidan+Delima+Dewi+Rahayu+Setyorini/@-7.8500117,110.197052,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a51afbdb49c43:0x86dc6f7c4e371e15!8m2!3d-7.8500117!4d110.4854431!15sChJLbGluaWsgR3VudW5na2lkdWySARxvYnN0ZXRyaWNzX2d5bmVjb2xvZ3lfY2xpbmlj4AEA!16s%2Fg%2F11g0w0yvz1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bidan+Delima+Dewi+Rahayu+Setyorini/@-7.8500117,110.197052,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a51afbdb49c43:0x86dc6f7c4e371e15!8m2!3d-7.8500117!4d110.4854431!15sChJLbGluaWsgR3VudW5na2lkdWySARxvYnN0ZXRyaWNzX2d5bmVjb2xvZ3lfY2xpbmlj4AEA!16s%2Fg%2F11g0w0yvz1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3116,25 +3046,24 @@
           <t>(0274) 581887</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F67" t="n">
-        <v>4.8</v>
+        <v>-7.793319</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.793319</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.367815</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Realino/@-7.8500117,110.197052,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a58288a01a271:0x22973e4b12f21253!8m2!3d-7.7933192!4d110.3678149!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlVhMlYxY3pGUlJSQULgAQD6AQQIABBA!16s%2Fg%2F11b61r6pxk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Realino/@-7.8500117,110.197052,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a58288a01a271:0x22973e4b12f21253!8m2!3d-7.7933192!4d110.3678149!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlVhMlYxY3pGUlJSQULgAQD6AQQIABBA!16s%2Fg%2F11b61r6pxk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -3157,25 +3086,24 @@
           <t>0812-9060-6567</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F68" t="n">
-        <v>3.5</v>
+        <v>-7.806836</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.806836</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.686236</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puskesmas+Ngawen+2+Gunung+Kidul/@-7.8068365,110.3978453,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a48473d47f1cd:0xe94a45e58f73cbff!8m2!3d-7.8068365!4d110.6862364!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEVcHVibGljX21lZGljYWxfY2VudGVymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVEyYTFweWEySjNFQUXgAQD6AQUIsgEQOg!16s%2Fg%2F11clwpvky6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puskesmas+Ngawen+2+Gunung+Kidul/@-7.8068365,110.3978453,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a48473d47f1cd:0xe94a45e58f73cbff!8m2!3d-7.8068365!4d110.6862364!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEVcHVibGljX21lZGljYWxfY2VudGVymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVEyYTFweWEySjNFQUXgAQD6AQUIsgEQOg!16s%2Fg%2F11clwpvky6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -3199,22 +3127,21 @@
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>-7.96564</v>
+      </c>
       <c r="G69" t="n">
-        <v>-7.96564</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.600433</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klinik+Kuret+Wonosari+Dr.+Sarah+Sp.OG/@-7.8068365,110.3978453,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb35fb6afa31b:0x171efc4ca27c6ab0!8m2!3d-7.9656405!4d110.6004327!15sChJLbGluaWsgR3VudW5na2lkdWySAQ5tZWRpY2FsX2NsaW5pY-ABAA!16s%2Fg%2F11w1v4w5br?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3233,25 +3160,24 @@
           <t>(0274) 375396</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F70" t="n">
-        <v>4.5</v>
+        <v>-7.816164</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.816164</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.362753</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Gading/@-7.8161639,110.0743621,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a57bc475c6239:0xdcced27faa17de26!8m2!3d-7.8161639!4d110.3627532!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUndialJsVlRWUlJSQULgAQD6AQUIhQQQOw!16s%2Fg%2F1hc1__wx5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Gading/@-7.8161639,110.0743621,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a57bc475c6239:0xdcced27faa17de26!8m2!3d-7.8161639!4d110.3627532!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUndialJsVlRWUlJSQULgAQD6AQUIhQQQOw!16s%2Fg%2F1hc1__wx5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>12 jam lalu</t>
         </is>
@@ -3274,25 +3200,24 @@
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F71" t="n">
-        <v>4.3</v>
+        <v>-7.986147</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.986147</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.595393</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/UPT+Puskesmas+Wonosari+1/@-7.9861473,110.3070021,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb3748fcde9ef:0x25794d2760f25b9d!8m2!3d-7.9861473!4d110.5953932!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEXY29tbXVuaXR5X2hlYWx0aF9jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmFiRW8yVUhkblJSQULgAQD6AQQIABA4!16s%2Fg%2F11ckqs_l6g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/UPT+Puskesmas+Wonosari+1/@-7.9861473,110.3070021,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb3748fcde9ef:0x25794d2760f25b9d!8m2!3d-7.9861473!4d110.5953932!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEXY29tbXVuaXR5X2hlYWx0aF9jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmFiRW8yVUhkblJSQULgAQD6AQQIABA4!16s%2Fg%2F11ckqs_l6g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3311,25 +3236,24 @@
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F72" t="n">
-        <v>4.3</v>
+        <v>-7.800668</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.800668</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.675437</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Terapi+Stroke+Gunungkidul/@-7.9861473,110.3070021,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a499d0f4aeb37:0x453ccdfc19d2fc9b!8m2!3d-7.8006678!4d110.6754366!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEUcGh5c2lvdGhlcmFweV9jZW50ZXKaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTm9hVmxpUzFWQkVBReABAPoBBAgAEEA!16s%2Fg%2F11kb3t71bj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J72" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Terapi+Stroke+Gunungkidul/@-7.9861473,110.3070021,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a499d0f4aeb37:0x453ccdfc19d2fc9b!8m2!3d-7.8006678!4d110.6754366!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEUcGh5c2lvdGhlcmFweV9jZW50ZXKaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTm9hVmxpUzFWQkVBReABAPoBBAgAEEA!16s%2Fg%2F11kb3t71bj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3348,25 +3272,24 @@
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>5</v>
+      </c>
       <c r="F73" t="n">
-        <v>5</v>
+        <v>-8.025980000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.025980000000001</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.371045</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PUSKESMAS+PEMBANTU+Giricahyo,+Purwosari,+Gunung+Kidul/@-8.0259804,110.0826543,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7baa36ed10ea0b:0xdb7b9bd74456e98!8m2!3d-8.0259804!4d110.3710454!15sChJLbGluaWsgR3VudW5na2lkdWySARVwdWJsaWNfbWVkaWNhbF9jZW50ZXLgAQA!16s%2Fg%2F11c53qlc0y?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J73" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PUSKESMAS+PEMBANTU+Giricahyo,+Purwosari,+Gunung+Kidul/@-8.0259804,110.0826543,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7baa36ed10ea0b:0xdb7b9bd74456e98!8m2!3d-8.0259804!4d110.3710454!15sChJLbGluaWsgR3VudW5na2lkdWySARVwdWJsaWNfbWVkaWNhbF9jZW50ZXLgAQA!16s%2Fg%2F11c53qlc0y?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3389,25 +3312,24 @@
           <t>(0274) 566795</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>4</v>
+      </c>
       <c r="F74" t="n">
-        <v>4</v>
+        <v>-7.801945</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.801945</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.395451</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Panasea/@-7.801945,110.1070599,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a57643145823b:0x1b887d0487605ad8!8m2!3d-7.801945!4d110.395451!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTm9iR1p4VlhWQlJSQULgAQD6AQQIABA6!16s%2Fg%2F11b67m90cp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Panasea/@-7.801945,110.1070599,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a57643145823b:0x1b887d0487605ad8!8m2!3d-7.801945!4d110.395451!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTm9iR1p4VlhWQlJSQULgAQD6AQQIABA6!16s%2Fg%2F11b67m90cp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -3430,25 +3352,24 @@
           <t>(0274) 4530254</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F75" t="n">
-        <v>4.6</v>
+        <v>-7.841629</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.841629</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.363016</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+Kartika+0729/@-7.801945,110.1070599,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a564c2559af4f:0xa7f42092519ae3db!8m2!3d-7.8416289!4d110.3630162!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkhlbUYxYkhoQlJSQULgAQD6AQQIABAu!16s%2Fg%2F11bws8wffb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J75" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+Kartika+0729/@-7.801945,110.1070599,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a564c2559af4f:0xa7f42092519ae3db!8m2!3d-7.8416289!4d110.3630162!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEObWVkaWNhbF9jbGluaWOaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkhlbUYxYkhoQlJSQULgAQD6AQQIABAu!16s%2Fg%2F11bws8wffb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3471,25 +3392,24 @@
           <t>(0274) 2910726</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F76" t="n">
-        <v>4.1</v>
+        <v>-8.045002999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>-8.045002999999999</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.503859</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RSUD+Saptosari/@-7.801945,110.1070599,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bae0e742ab569:0xe2bd3a50627bf36e!8m2!3d-8.045003!4d110.5038592!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEIaG9zcGl0YWyaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJjVTlpYzJwblJSQULgAQD6AQQIABA2!16s%2Fg%2F11f2wlxxmt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RSUD+Saptosari/@-7.801945,110.1070599,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bae0e742ab569:0xe2bd3a50627bf36e!8m2!3d-8.045003!4d110.5038592!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEIaG9zcGl0YWyaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJjVTlpYzJwblJSQULgAQD6AQQIABA2!16s%2Fg%2F11f2wlxxmt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -3513,22 +3433,21 @@
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>-8.045603</v>
+      </c>
       <c r="G77" t="n">
-        <v>-8.045603</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.48547</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Makanan+tradisional+Gatot+dan+tiwul+asli+Gunungkidul/@-7.801945,110.1070599,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7baf17c29fe25f:0x3ee6fc9826de4100!8m2!3d-8.045603!4d110.4854698!15sChJLbGluaWsgR3VudW5na2lkdWySAQ10cmF2ZWxfY2xpbmlj4AEA!16s%2Fg%2F11khrm4650?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3551,25 +3470,24 @@
           <t>0819-0969-0529</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F78" t="n">
-        <v>4.8</v>
+        <v>-7.813005</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.813005</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.358844</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Pratama+D%E2%80%99Maryam/@-7.801945,110.1070599,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a573732bb012f:0x7ca127b9cf5bfbc3!8m2!3d-7.8130055!4d110.3588443!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgESbWF0ZXJuaXR5X2hvc3BpdGFsmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJsZVhKbU5IaDNSUkFC4AEA-gEECAAQQA!16s%2Fg%2F11mnkvvcwt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J78" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Pratama+D%E2%80%99Maryam/@-7.801945,110.1070599,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a573732bb012f:0x7ca127b9cf5bfbc3!8m2!3d-7.8130055!4d110.3588443!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgESbWF0ZXJuaXR5X2hvc3BpdGFsmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJsZVhKbU5IaDNSUkFC4AEA-gEECAAQQA!16s%2Fg%2F11mnkvvcwt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -3588,25 +3506,24 @@
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>2.6</v>
+      </c>
       <c r="F79" t="n">
-        <v>2.6</v>
+        <v>-7.889871</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.889871</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.618585</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Puskesmas+Nglipar+I/@-7.8898715,110.3301935,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a4c9a9f0e1429:0x7f7e42b90ee1812e!8m2!3d-7.8898715!4d110.6185846!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEVcHVibGljX21lZGljYWxfY2VudGVymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5oTlc4MmRHNW5SUkFC4AEA-gEECAAQIw!16s%2Fg%2F1pzrbn318?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J79" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Puskesmas+Nglipar+I/@-7.8898715,110.3301935,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a4c9a9f0e1429:0x7f7e42b90ee1812e!8m2!3d-7.8898715!4d110.6185846!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEVcHVibGljX21lZGljYWxfY2VudGVymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5oTlc4MmRHNW5SUkFC4AEA-gEECAAQIw!16s%2Fg%2F1pzrbn318?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -3625,25 +3542,24 @@
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>2.6</v>
+      </c>
       <c r="F80" t="n">
-        <v>2.6</v>
+        <v>-7.825482</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.825482</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.4315</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klinik+Gigi+Dentes+Jl.+Wonosari+%7C+Dentes+Dental+Clinic+%7C+Pasang+Behel+Jogja+%7C+Dokter+Gigi+Terdekat/@-7.8254824,110.1431091,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a51c50c7468d1:0x12b785890862255a!8m2!3d-7.8254824!4d110.4315002!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgENZGVudGFsX2NsaW5pY5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOSWVVdFVTMjFSUlJBQuABAPoBBAgAED8!16s%2Fg%2F11y6h24rjd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J80" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klinik+Gigi+Dentes+Jl.+Wonosari+%7C+Dentes+Dental+Clinic+%7C+Pasang+Behel+Jogja+%7C+Dokter+Gigi+Terdekat/@-7.8254824,110.1431091,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7a51c50c7468d1:0x12b785890862255a!8m2!3d-7.8254824!4d110.4315002!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgENZGVudGFsX2NsaW5pY5oBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOSWVVdFVTMjFSUlJBQuABAPoBBAgAED8!16s%2Fg%2F11y6h24rjd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -3662,25 +3578,24 @@
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>5</v>
+      </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>-7.96702</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.96702</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.605266</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Ceragem+Griya+Sehat/@-7.9670198,110.3168752,11z/data=!4m10!1m2!2m1!1sKlinik+Gunungkidul!3m6!1s0x2e7bb34b26194be9:0x928b08e1ac028d8!8m2!3d-7.9670198!4d110.6052663!15sChJLbGluaWsgR3VudW5na2lkdWxaFCISa2xpbmlrIGd1bnVuZ2tpZHVskgEUcGh5c2lvdGhlcmFweV9jZW50ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkhjVW96TlRsQlJSQULgAQD6AQQIABAc!16s%2Fg%2F11k0zfh056?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
